--- a/database/industries/siman/saroum/cost/quarterly.xlsx
+++ b/database/industries/siman/saroum/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\saroum\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\saroum\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866FEF81-769B-426C-A6EB-F58A4436CF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B668918-75FB-47C6-A97A-0F082A975F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -745,16 +760,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I227"/>
+  <dimension ref="B1:N227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -763,8 +778,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -775,8 +795,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -787,8 +812,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,8 +827,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -809,8 +844,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -821,8 +861,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -831,8 +876,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -853,8 +903,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -863,98 +928,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>82152</v>
+      </c>
+      <c r="F10" s="9">
+        <v>97943</v>
+      </c>
+      <c r="G10" s="9">
+        <v>96760</v>
+      </c>
+      <c r="H10" s="9">
+        <v>132548</v>
+      </c>
+      <c r="I10" s="9">
+        <v>146069</v>
+      </c>
+      <c r="J10" s="9">
         <v>165550</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>161359</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>251051</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>214119</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>289210</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>10871</v>
+      </c>
+      <c r="F11" s="11">
+        <v>13673</v>
+      </c>
+      <c r="G11" s="11">
+        <v>15228</v>
+      </c>
+      <c r="H11" s="11">
+        <v>19756</v>
+      </c>
+      <c r="I11" s="11">
+        <v>16290</v>
+      </c>
+      <c r="J11" s="11">
         <v>20214</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>14829</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>39138</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>25333</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>33580</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>419067</v>
+      </c>
+      <c r="F12" s="9">
+        <v>471014</v>
+      </c>
+      <c r="G12" s="9">
+        <v>427888</v>
+      </c>
+      <c r="H12" s="9">
+        <v>674768</v>
+      </c>
+      <c r="I12" s="9">
+        <v>770510</v>
+      </c>
+      <c r="J12" s="9">
         <v>830820</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>696909</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>1038365</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>735819</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>994164</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>512090</v>
+      </c>
+      <c r="F13" s="13">
+        <v>582630</v>
+      </c>
+      <c r="G13" s="13">
+        <v>539876</v>
+      </c>
+      <c r="H13" s="13">
+        <v>827072</v>
+      </c>
+      <c r="I13" s="13">
+        <v>932869</v>
+      </c>
+      <c r="J13" s="13">
         <v>1016584</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>873097</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>1328554</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>975271</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>1316954</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -973,54 +1103,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>512090</v>
+      </c>
+      <c r="F15" s="13">
+        <v>582630</v>
+      </c>
+      <c r="G15" s="13">
+        <v>539876</v>
+      </c>
+      <c r="H15" s="13">
+        <v>827072</v>
+      </c>
+      <c r="I15" s="13">
+        <v>932869</v>
+      </c>
+      <c r="J15" s="13">
         <v>1016584</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>873097</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>1328554</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>975271</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>1316954</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>130493</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-45982</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-94707</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-62819</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-49332</v>
+      </c>
+      <c r="J16" s="9">
         <v>-90120</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-163913</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-174275</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>103989</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-146006</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1039,32 +1214,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>642583</v>
+      </c>
+      <c r="F18" s="15">
+        <v>536648</v>
+      </c>
+      <c r="G18" s="15">
+        <v>445169</v>
+      </c>
+      <c r="H18" s="15">
+        <v>764253</v>
+      </c>
+      <c r="I18" s="15">
+        <v>883537</v>
+      </c>
+      <c r="J18" s="15">
         <v>926464</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>709184</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>1154279</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1079260</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>1170948</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1072,65 +1277,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>25781</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>22938</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>53843</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
         <v>23709</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-8181</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3386</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-6044</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-19378</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3636</v>
+      </c>
+      <c r="J20" s="9">
         <v>-22938</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-53843</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-17809</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-23709</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-58533</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>634402</v>
+      </c>
+      <c r="F21" s="13">
+        <v>540034</v>
+      </c>
+      <c r="G21" s="13">
+        <v>439125</v>
+      </c>
+      <c r="H21" s="13">
+        <v>770656</v>
+      </c>
+      <c r="I21" s="13">
+        <v>887173</v>
+      </c>
+      <c r="J21" s="13">
         <v>903526</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>694021</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>1190313</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1055551</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>1153933</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1149,30 +1399,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>634402</v>
+      </c>
+      <c r="F23" s="13">
+        <v>540034</v>
+      </c>
+      <c r="G23" s="13">
+        <v>439125</v>
+      </c>
+      <c r="H23" s="13">
+        <v>770656</v>
+      </c>
+      <c r="I23" s="13">
+        <v>887173</v>
+      </c>
+      <c r="J23" s="13">
         <v>903526</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>694021</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>1190313</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1055551</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>1153933</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1181,8 +1461,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1191,8 +1476,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1201,10 +1491,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1223,8 +1518,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1233,246 +1543,401 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="11">
+        <v>31</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="11">
+        <v>42828</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11">
         <v>70058</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>18903</v>
+      </c>
+      <c r="F31" s="9">
+        <v>72363</v>
+      </c>
+      <c r="G31" s="9">
+        <v>79107</v>
+      </c>
+      <c r="H31" s="9">
+        <v>84939</v>
+      </c>
+      <c r="I31" s="9">
+        <v>79277</v>
+      </c>
+      <c r="J31" s="9">
         <v>78517</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="9">
         <v>63174</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>33140</v>
+      </c>
+      <c r="F32" s="11">
+        <v>28263</v>
+      </c>
+      <c r="G32" s="11">
+        <v>25648</v>
+      </c>
+      <c r="H32" s="11">
+        <v>61721</v>
+      </c>
+      <c r="I32" s="11">
+        <v>93738</v>
+      </c>
+      <c r="J32" s="11">
         <v>100767</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11">
         <v>132973</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>155296</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>176734</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>221782</v>
+      </c>
+      <c r="F33" s="9">
+        <v>204042</v>
+      </c>
+      <c r="G33" s="9">
+        <v>256109</v>
+      </c>
+      <c r="H33" s="9">
+        <v>313125</v>
+      </c>
+      <c r="I33" s="9">
+        <v>287412</v>
+      </c>
+      <c r="J33" s="9">
         <v>318283</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9">
         <v>402423</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>296616</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>472285</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>795593</v>
+      </c>
+      <c r="F34" s="11">
+        <v>795595</v>
+      </c>
+      <c r="G34" s="11">
+        <v>795595</v>
+      </c>
+      <c r="H34" s="11">
+        <v>792793</v>
+      </c>
+      <c r="I34" s="11">
+        <v>790023</v>
+      </c>
+      <c r="J34" s="11">
         <v>789586</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="11">
         <v>730993</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>719942</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>718909</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>44551</v>
+      </c>
+      <c r="F35" s="9">
+        <v>43773</v>
+      </c>
+      <c r="G35" s="9">
+        <v>43175</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="9">
         <v>41942</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="K35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="9">
         <v>41943</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>40642</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>40120</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>50231</v>
+      </c>
+      <c r="F36" s="11">
+        <v>62568</v>
+      </c>
+      <c r="G36" s="11">
+        <v>74082</v>
+      </c>
+      <c r="H36" s="11">
+        <v>102761</v>
+      </c>
+      <c r="I36" s="11">
+        <v>134441</v>
+      </c>
+      <c r="J36" s="11">
         <v>173942</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="K36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="11">
         <v>245742</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>226278</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>216649</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
+        <v>1164200</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1206604</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1273716</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1398167</v>
+      </c>
+      <c r="I38" s="13">
+        <v>1384891</v>
+      </c>
+      <c r="J38" s="13">
         <v>1503037</v>
       </c>
-      <c r="F38" s="13">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="K38" s="13">
+        <v>0</v>
+      </c>
+      <c r="L38" s="13">
         <v>1624132</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>1438774</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>1687871</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1481,8 +1946,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1491,8 +1961,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1501,10 +1976,15 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1523,8 +2003,23 @@
       <c r="I42" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1533,246 +2028,401 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="11">
-        <v>0</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>0</v>
+        <v>58705</v>
       </c>
       <c r="F46" s="9">
+        <v>8058</v>
+      </c>
+      <c r="G46" s="9">
+        <v>8347</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
         <v>1</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L46" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>27298</v>
+      </c>
+      <c r="F47" s="11">
+        <v>19655</v>
+      </c>
+      <c r="G47" s="11">
+        <v>50001</v>
+      </c>
+      <c r="H47" s="11">
+        <v>55416</v>
+      </c>
+      <c r="I47" s="11">
+        <v>33089</v>
+      </c>
+      <c r="J47" s="11">
         <v>36133</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K47" s="11">
         <v>28455</v>
       </c>
-      <c r="G47" s="11">
+      <c r="L47" s="11">
         <v>45497</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>47207</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>28415</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
+        <v>489054</v>
+      </c>
+      <c r="F48" s="9">
+        <v>720454</v>
+      </c>
+      <c r="G48" s="9">
+        <v>601876</v>
+      </c>
+      <c r="H48" s="9">
+        <v>634507</v>
+      </c>
+      <c r="I48" s="9">
+        <v>629412</v>
+      </c>
+      <c r="J48" s="9">
         <v>566251</v>
       </c>
-      <c r="F48" s="9">
+      <c r="K48" s="9">
         <v>479246</v>
       </c>
-      <c r="G48" s="9">
+      <c r="L48" s="9">
         <v>609767</v>
       </c>
-      <c r="H48" s="9">
+      <c r="M48" s="9">
         <v>547433</v>
       </c>
-      <c r="I48" s="9">
+      <c r="N48" s="9">
         <v>630245</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>73853</v>
+      </c>
+      <c r="F49" s="11">
+        <v>95623</v>
+      </c>
+      <c r="G49" s="11">
+        <v>108398</v>
+      </c>
+      <c r="H49" s="11">
+        <v>104312</v>
+      </c>
+      <c r="I49" s="11">
+        <v>94724</v>
+      </c>
+      <c r="J49" s="11">
         <v>37816</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>46309</v>
       </c>
-      <c r="G49" s="11">
+      <c r="L49" s="11">
         <v>102435</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>71708</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>135759</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
         <v>0</v>
       </c>
       <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
         <v>1</v>
       </c>
-      <c r="G50" s="9">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L50" s="9">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>25731</v>
+      </c>
+      <c r="F51" s="11">
+        <v>29265</v>
+      </c>
+      <c r="G51" s="11">
+        <v>40294</v>
+      </c>
+      <c r="H51" s="11">
+        <v>49774</v>
+      </c>
+      <c r="I51" s="11">
+        <v>51881</v>
+      </c>
+      <c r="J51" s="11">
         <v>45177</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>46689</v>
       </c>
-      <c r="G51" s="11">
-        <v>0</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L51" s="11">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
+        <v>674641</v>
+      </c>
+      <c r="F53" s="13">
+        <v>873055</v>
+      </c>
+      <c r="G53" s="13">
+        <v>808916</v>
+      </c>
+      <c r="H53" s="13">
+        <v>844009</v>
+      </c>
+      <c r="I53" s="13">
+        <v>809106</v>
+      </c>
+      <c r="J53" s="13">
         <v>685377</v>
       </c>
-      <c r="F53" s="13">
+      <c r="K53" s="13">
         <v>600701</v>
       </c>
-      <c r="G53" s="13">
+      <c r="L53" s="13">
         <v>757699</v>
       </c>
-      <c r="H53" s="13">
+      <c r="M53" s="13">
         <v>666348</v>
       </c>
-      <c r="I53" s="13">
+      <c r="N53" s="13">
         <v>794419</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1781,8 +2431,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1791,8 +2446,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1801,10 +2461,15 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1823,8 +2488,23 @@
       <c r="I57" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1833,246 +2513,401 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>26</v>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="11">
+        <v>31</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="11">
+        <v>885</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" s="11">
         <v>2999</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
+        <v>3183</v>
+      </c>
+      <c r="F61" s="9">
+        <v>1314</v>
+      </c>
+      <c r="G61" s="9">
+        <v>2515</v>
+      </c>
+      <c r="H61" s="9">
+        <v>5662</v>
+      </c>
+      <c r="I61" s="9">
+        <v>761</v>
+      </c>
+      <c r="J61" s="9">
         <v>3308</v>
       </c>
-      <c r="F61" s="9">
+      <c r="K61" s="9">
         <v>5151</v>
       </c>
-      <c r="G61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="9">
+      <c r="L61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="9">
         <v>6884</v>
       </c>
-      <c r="I61" s="9">
+      <c r="N61" s="9">
         <v>8774</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>34237</v>
+      </c>
+      <c r="F62" s="11">
+        <v>22270</v>
+      </c>
+      <c r="G62" s="11">
+        <v>13928</v>
+      </c>
+      <c r="H62" s="11">
+        <v>23399</v>
+      </c>
+      <c r="I62" s="11">
+        <v>26059</v>
+      </c>
+      <c r="J62" s="11">
         <v>22847</v>
       </c>
-      <c r="F62" s="11">
+      <c r="K62" s="11">
         <v>9536</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L62" s="11">
         <v>23174</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>25769</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>20363</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
+        <v>506794</v>
+      </c>
+      <c r="F63" s="9">
+        <v>668387</v>
+      </c>
+      <c r="G63" s="9">
+        <v>544860</v>
+      </c>
+      <c r="H63" s="9">
+        <v>660220</v>
+      </c>
+      <c r="I63" s="9">
+        <v>598542</v>
+      </c>
+      <c r="J63" s="9">
         <v>604608</v>
       </c>
-      <c r="F63" s="9">
+      <c r="K63" s="9">
         <v>356749</v>
       </c>
-      <c r="G63" s="9">
+      <c r="L63" s="9">
         <v>715574</v>
       </c>
-      <c r="H63" s="9">
+      <c r="M63" s="9">
         <v>371764</v>
       </c>
-      <c r="I63" s="9">
+      <c r="N63" s="9">
         <v>603126</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>73852</v>
+      </c>
+      <c r="F64" s="11">
+        <v>95623</v>
+      </c>
+      <c r="G64" s="11">
+        <v>111200</v>
+      </c>
+      <c r="H64" s="11">
+        <v>107082</v>
+      </c>
+      <c r="I64" s="11">
+        <v>95161</v>
+      </c>
+      <c r="J64" s="11">
         <v>88637</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>54080</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>113486</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>72741</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>139352</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="F65" s="9">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="G65" s="9">
+        <v>347</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="9">
+        <v>885</v>
+      </c>
+      <c r="J65" s="9">
+        <v>0</v>
+      </c>
+      <c r="K65" s="9">
+        <v>0</v>
+      </c>
+      <c r="L65" s="9">
         <v>1301</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>522</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>512</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>13394</v>
+      </c>
+      <c r="F66" s="11">
+        <v>17751</v>
+      </c>
+      <c r="G66" s="11">
+        <v>11615</v>
+      </c>
+      <c r="H66" s="11">
+        <v>18094</v>
+      </c>
+      <c r="I66" s="11">
+        <v>12380</v>
+      </c>
+      <c r="J66" s="11">
         <v>11894</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>8171</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>19464</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>9629</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>16125</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>632238</v>
+      </c>
+      <c r="F68" s="13">
+        <v>805943</v>
+      </c>
+      <c r="G68" s="13">
+        <v>684465</v>
+      </c>
+      <c r="H68" s="13">
+        <v>815342</v>
+      </c>
+      <c r="I68" s="13">
+        <v>733788</v>
+      </c>
+      <c r="J68" s="13">
         <v>731294</v>
       </c>
-      <c r="F68" s="13">
+      <c r="K68" s="13">
         <v>433687</v>
       </c>
-      <c r="G68" s="13">
+      <c r="L68" s="13">
         <v>875998</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>487309</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>788252</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2081,8 +2916,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2091,8 +2931,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2101,10 +2946,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2123,8 +2973,23 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2133,246 +2998,401 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>26</v>
+      <c r="E74" s="9">
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
+        <v>0</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="11">
+        <v>31</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="11">
+        <v>41943</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="11">
         <v>67059</v>
       </c>
-      <c r="H75" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
+        <v>72363</v>
+      </c>
+      <c r="F76" s="9">
+        <v>79107</v>
+      </c>
+      <c r="G76" s="9">
+        <v>84939</v>
+      </c>
+      <c r="H76" s="9">
+        <v>79277</v>
+      </c>
+      <c r="I76" s="9">
+        <v>78517</v>
+      </c>
+      <c r="J76" s="9">
         <v>75209</v>
       </c>
-      <c r="F76" s="9">
+      <c r="K76" s="9">
         <v>70059</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H76" s="9">
+      <c r="L76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M76" s="9">
         <v>63174</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>54400</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
+        <v>28263</v>
+      </c>
+      <c r="F77" s="11">
+        <v>25648</v>
+      </c>
+      <c r="G77" s="11">
+        <v>61721</v>
+      </c>
+      <c r="H77" s="11">
+        <v>93738</v>
+      </c>
+      <c r="I77" s="11">
+        <v>100767</v>
+      </c>
+      <c r="J77" s="11">
         <v>114053</v>
       </c>
-      <c r="F77" s="11">
+      <c r="K77" s="11">
         <v>132972</v>
       </c>
-      <c r="G77" s="11">
+      <c r="L77" s="11">
         <v>155296</v>
       </c>
-      <c r="H77" s="11">
+      <c r="M77" s="11">
         <v>176734</v>
       </c>
-      <c r="I77" s="11">
+      <c r="N77" s="11">
         <v>184786</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
+        <v>204042</v>
+      </c>
+      <c r="F78" s="9">
+        <v>256109</v>
+      </c>
+      <c r="G78" s="9">
+        <v>313125</v>
+      </c>
+      <c r="H78" s="9">
+        <v>287412</v>
+      </c>
+      <c r="I78" s="9">
+        <v>318283</v>
+      </c>
+      <c r="J78" s="9">
         <v>279926</v>
       </c>
-      <c r="F78" s="9">
+      <c r="K78" s="9">
         <v>402423</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>296616</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>472285</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>499404</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
+        <v>795595</v>
+      </c>
+      <c r="F79" s="11">
+        <v>795595</v>
+      </c>
+      <c r="G79" s="11">
+        <v>792793</v>
+      </c>
+      <c r="H79" s="11">
+        <v>790023</v>
+      </c>
+      <c r="I79" s="11">
+        <v>789586</v>
+      </c>
+      <c r="J79" s="11">
         <v>738764</v>
       </c>
-      <c r="F79" s="11">
+      <c r="K79" s="11">
         <v>730994</v>
       </c>
-      <c r="G79" s="11">
+      <c r="L79" s="11">
         <v>719942</v>
       </c>
-      <c r="H79" s="11">
+      <c r="M79" s="11">
         <v>718909</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>715316</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
+        <v>43773</v>
+      </c>
+      <c r="F80" s="9">
+        <v>43175</v>
+      </c>
+      <c r="G80" s="9">
+        <v>42828</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" s="9">
         <v>41942</v>
       </c>
-      <c r="F80" s="9">
+      <c r="J80" s="9">
+        <v>41942</v>
+      </c>
+      <c r="K80" s="9">
         <v>41943</v>
       </c>
-      <c r="G80" s="9">
+      <c r="L80" s="9">
         <v>40642</v>
       </c>
-      <c r="H80" s="9">
+      <c r="M80" s="9">
         <v>40120</v>
       </c>
-      <c r="I80" s="9">
+      <c r="N80" s="9">
         <v>39608</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>62568</v>
+      </c>
+      <c r="F81" s="11">
+        <v>74082</v>
+      </c>
+      <c r="G81" s="11">
+        <v>102761</v>
+      </c>
+      <c r="H81" s="11">
+        <v>134441</v>
+      </c>
+      <c r="I81" s="11">
+        <v>173942</v>
+      </c>
+      <c r="J81" s="11">
         <v>207225</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K81" s="11">
         <v>245743</v>
       </c>
-      <c r="G81" s="11">
+      <c r="L81" s="11">
         <v>226278</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M81" s="11">
         <v>216649</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N81" s="11">
         <v>200524</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
+        <v>1206604</v>
+      </c>
+      <c r="F83" s="13">
+        <v>1273716</v>
+      </c>
+      <c r="G83" s="13">
+        <v>1398167</v>
+      </c>
+      <c r="H83" s="13">
+        <v>1426834</v>
+      </c>
+      <c r="I83" s="13">
+        <v>1503037</v>
+      </c>
+      <c r="J83" s="13">
         <v>1457119</v>
       </c>
-      <c r="F83" s="13">
+      <c r="K83" s="13">
         <v>1624134</v>
       </c>
-      <c r="G83" s="13">
+      <c r="L83" s="13">
         <v>1505833</v>
       </c>
-      <c r="H83" s="13">
+      <c r="M83" s="13">
         <v>1687871</v>
       </c>
-      <c r="I83" s="13">
+      <c r="N83" s="13">
         <v>1694038</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2381,8 +3401,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2391,8 +3416,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2401,10 +3431,15 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2423,8 +3458,23 @@
       <c r="I87" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2433,246 +3483,401 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>26</v>
+      <c r="E89" s="9">
+        <v>0</v>
+      </c>
+      <c r="F89" s="9">
+        <v>0</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="11">
+        <v>31</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="11">
+        <v>13285</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L90" s="11">
         <v>34105</v>
       </c>
-      <c r="H90" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>4586</v>
+      </c>
+      <c r="F91" s="9">
+        <v>28371</v>
+      </c>
+      <c r="G91" s="9">
+        <v>30969</v>
+      </c>
+      <c r="H91" s="9">
+        <v>34208</v>
+      </c>
+      <c r="I91" s="9">
+        <v>31928</v>
+      </c>
+      <c r="J91" s="9">
         <v>31208</v>
       </c>
-      <c r="F91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I91" s="9">
+      <c r="K91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" s="9">
         <v>29781</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>20484</v>
+      </c>
+      <c r="F92" s="11">
+        <v>14003</v>
+      </c>
+      <c r="G92" s="11">
+        <v>13634</v>
+      </c>
+      <c r="H92" s="11">
+        <v>39440</v>
+      </c>
+      <c r="I92" s="11">
+        <v>74057</v>
+      </c>
+      <c r="J92" s="11">
         <v>85211</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="11">
+      <c r="K92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="11">
         <v>137977</v>
       </c>
-      <c r="H92" s="11">
+      <c r="M92" s="11">
         <v>187963</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>250235</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>17747</v>
+      </c>
+      <c r="F93" s="9">
+        <v>14830</v>
+      </c>
+      <c r="G93" s="9">
+        <v>20378</v>
+      </c>
+      <c r="H93" s="9">
+        <v>26561</v>
+      </c>
+      <c r="I93" s="9">
+        <v>36926</v>
+      </c>
+      <c r="J93" s="9">
         <v>46492</v>
       </c>
-      <c r="F93" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" s="9">
+      <c r="K93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" s="9">
         <v>74606</v>
       </c>
-      <c r="H93" s="9">
+      <c r="M93" s="9">
         <v>73155</v>
       </c>
-      <c r="I93" s="9">
+      <c r="N93" s="9">
         <v>144407</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>16406</v>
+      </c>
+      <c r="F94" s="11">
+        <v>18361</v>
+      </c>
+      <c r="G94" s="11">
+        <v>21807</v>
+      </c>
+      <c r="H94" s="11">
+        <v>24011</v>
+      </c>
+      <c r="I94" s="11">
+        <v>28924</v>
+      </c>
+      <c r="J94" s="11">
         <v>33655</v>
       </c>
-      <c r="F94" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="11">
+      <c r="K94" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L94" s="11">
         <v>38345</v>
       </c>
-      <c r="H94" s="11">
+      <c r="M94" s="11">
         <v>47171</v>
       </c>
-      <c r="I94" s="11">
+      <c r="N94" s="11">
         <v>57909</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
+        <v>13854</v>
+      </c>
+      <c r="F95" s="9">
+        <v>13612</v>
+      </c>
+      <c r="G95" s="9">
+        <v>13426</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" s="9">
         <v>12989</v>
       </c>
-      <c r="F95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="9">
+      <c r="K95" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L95" s="9">
         <v>13762</v>
       </c>
-      <c r="H95" s="9">
+      <c r="M95" s="9">
         <v>13314</v>
       </c>
-      <c r="I95" s="9">
+      <c r="N95" s="9">
         <v>12834</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
+        <v>24205</v>
+      </c>
+      <c r="F96" s="11">
+        <v>34109</v>
+      </c>
+      <c r="G96" s="11">
+        <v>46077</v>
+      </c>
+      <c r="H96" s="11">
+        <v>78729</v>
+      </c>
+      <c r="I96" s="11">
+        <v>128230</v>
+      </c>
+      <c r="J96" s="11">
         <v>184107</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="11">
+      <c r="K96" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L96" s="11">
         <v>303683</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>279318</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>263854</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
+        <v>97282</v>
+      </c>
+      <c r="F98" s="13">
+        <v>123286</v>
+      </c>
+      <c r="G98" s="13">
+        <v>146291</v>
+      </c>
+      <c r="H98" s="13">
+        <v>216234</v>
+      </c>
+      <c r="I98" s="13">
+        <v>300065</v>
+      </c>
+      <c r="J98" s="13">
         <v>393662</v>
       </c>
-      <c r="F98" s="13">
-        <v>0</v>
-      </c>
-      <c r="G98" s="13">
+      <c r="K98" s="13">
+        <v>0</v>
+      </c>
+      <c r="L98" s="13">
         <v>602478</v>
       </c>
-      <c r="H98" s="13">
+      <c r="M98" s="13">
         <v>600921</v>
       </c>
-      <c r="I98" s="13">
+      <c r="N98" s="13">
         <v>759020</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2681,8 +3886,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2691,8 +3901,13 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2701,10 +3916,15 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -2723,8 +3943,23 @@
       <c r="I102" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2733,246 +3968,401 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D104" s="9"/>
-      <c r="E104" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>26</v>
+      <c r="E104" s="9">
+        <v>3445</v>
+      </c>
+      <c r="F104" s="9">
+        <v>5694</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" s="11">
-        <v>0</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" s="11">
+        <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L105" s="11">
+        <v>0</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>0</v>
+        <v>25715</v>
       </c>
       <c r="F106" s="9">
+        <v>3107</v>
+      </c>
+      <c r="G106" s="9">
+        <v>3751</v>
+      </c>
+      <c r="H106" s="9">
+        <v>0</v>
+      </c>
+      <c r="I106" s="9">
+        <v>0</v>
+      </c>
+      <c r="J106" s="9">
+        <v>0</v>
+      </c>
+      <c r="K106" s="9">
         <v>7256</v>
       </c>
-      <c r="G106" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="9">
-        <v>0</v>
-      </c>
-      <c r="I106" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L106" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M106" s="9">
+        <v>0</v>
+      </c>
+      <c r="N106" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
+        <v>12042</v>
+      </c>
+      <c r="F107" s="11">
+        <v>13735</v>
+      </c>
+      <c r="G107" s="11">
+        <v>45550</v>
+      </c>
+      <c r="H107" s="11">
+        <v>53269</v>
+      </c>
+      <c r="I107" s="11">
+        <v>36975</v>
+      </c>
+      <c r="J107" s="11">
         <v>47386</v>
       </c>
-      <c r="F107" s="11">
+      <c r="K107" s="11">
         <v>46458</v>
       </c>
-      <c r="G107" s="11">
+      <c r="L107" s="11">
         <v>78406</v>
       </c>
-      <c r="H107" s="11">
+      <c r="M107" s="11">
         <v>108732</v>
       </c>
-      <c r="I107" s="11">
+      <c r="N107" s="11">
         <v>55213</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
+        <v>44497</v>
+      </c>
+      <c r="F108" s="9">
+        <v>66496</v>
+      </c>
+      <c r="G108" s="9">
+        <v>73846</v>
+      </c>
+      <c r="H108" s="9">
+        <v>99703</v>
+      </c>
+      <c r="I108" s="9">
+        <v>108459</v>
+      </c>
+      <c r="J108" s="9">
         <v>111629</v>
       </c>
-      <c r="F108" s="9">
+      <c r="K108" s="9">
         <v>156971</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>185602</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>213867</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>229617</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>4027</v>
+      </c>
+      <c r="F109" s="11">
+        <v>6875</v>
+      </c>
+      <c r="G109" s="11">
+        <v>7614</v>
+      </c>
+      <c r="H109" s="11">
+        <v>9549</v>
+      </c>
+      <c r="I109" s="11">
+        <v>8826</v>
+      </c>
+      <c r="J109" s="11">
         <v>6770</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>9944</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>18083</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>17022</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>30222</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
         <v>0</v>
       </c>
       <c r="F110" s="9">
+        <v>0</v>
+      </c>
+      <c r="G110" s="9">
+        <v>0</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" s="9">
+        <v>0</v>
+      </c>
+      <c r="J110" s="9">
+        <v>0</v>
+      </c>
+      <c r="K110" s="9">
         <v>774</v>
       </c>
-      <c r="G110" s="9">
-        <v>0</v>
-      </c>
-      <c r="H110" s="9">
-        <v>0</v>
-      </c>
-      <c r="I110" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L110" s="9">
+        <v>0</v>
+      </c>
+      <c r="M110" s="9">
+        <v>0</v>
+      </c>
+      <c r="N110" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
+        <v>18431</v>
+      </c>
+      <c r="F111" s="11">
+        <v>25041</v>
+      </c>
+      <c r="G111" s="11">
+        <v>49208</v>
+      </c>
+      <c r="H111" s="11">
+        <v>66869</v>
+      </c>
+      <c r="I111" s="11">
+        <v>72395</v>
+      </c>
+      <c r="J111" s="11">
         <v>70929</v>
       </c>
-      <c r="F111" s="11">
+      <c r="K111" s="11">
         <v>77606</v>
       </c>
-      <c r="G111" s="11">
-        <v>0</v>
-      </c>
-      <c r="H111" s="11">
-        <v>0</v>
-      </c>
-      <c r="I111" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L111" s="11">
+        <v>0</v>
+      </c>
+      <c r="M111" s="11">
+        <v>0</v>
+      </c>
+      <c r="N111" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H112" s="9">
+        <v>0</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K112" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L112" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M112" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N112" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13">
+        <v>108157</v>
+      </c>
+      <c r="F113" s="13">
+        <v>120948</v>
+      </c>
+      <c r="G113" s="13">
+        <v>179969</v>
+      </c>
+      <c r="H113" s="13">
+        <v>229390</v>
+      </c>
+      <c r="I113" s="13">
+        <v>226655</v>
+      </c>
+      <c r="J113" s="13">
         <v>236714</v>
       </c>
-      <c r="F113" s="13">
+      <c r="K113" s="13">
         <v>299009</v>
       </c>
-      <c r="G113" s="13">
+      <c r="L113" s="13">
         <v>282091</v>
       </c>
-      <c r="H113" s="13">
+      <c r="M113" s="13">
         <v>339621</v>
       </c>
-      <c r="I113" s="13">
+      <c r="N113" s="13">
         <v>315052</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2981,8 +4371,13 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2991,8 +4386,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3001,10 +4401,15 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3023,8 +4428,23 @@
       <c r="I117" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3033,246 +4453,401 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>26</v>
+      <c r="E119" s="9">
+        <v>3445</v>
+      </c>
+      <c r="F119" s="9">
+        <v>5694</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" s="11">
+        <v>31</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="11">
+        <v>274</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" s="11">
         <v>1508</v>
       </c>
-      <c r="H120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>1929</v>
+      </c>
+      <c r="F121" s="9">
+        <v>509</v>
+      </c>
+      <c r="G121" s="9">
+        <v>512</v>
+      </c>
+      <c r="H121" s="9">
+        <v>2280</v>
+      </c>
+      <c r="I121" s="9">
+        <v>720</v>
+      </c>
+      <c r="J121" s="9">
         <v>1581</v>
       </c>
-      <c r="F121" s="9">
+      <c r="K121" s="9">
         <v>2779</v>
       </c>
-      <c r="G121" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H121" s="9">
+      <c r="L121" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M121" s="9">
         <v>4324</v>
       </c>
-      <c r="I121" s="9">
+      <c r="N121" s="9">
         <v>5812</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
+        <v>18523</v>
+      </c>
+      <c r="F122" s="11">
+        <v>14104</v>
+      </c>
+      <c r="G122" s="11">
+        <v>19744</v>
+      </c>
+      <c r="H122" s="11">
+        <v>18652</v>
+      </c>
+      <c r="I122" s="11">
+        <v>25821</v>
+      </c>
+      <c r="J122" s="11">
         <v>26734</v>
       </c>
-      <c r="F122" s="11">
+      <c r="K122" s="11">
         <v>14345</v>
       </c>
-      <c r="G122" s="11">
+      <c r="L122" s="11">
         <v>28420</v>
       </c>
-      <c r="H122" s="11">
+      <c r="M122" s="11">
         <v>46460</v>
       </c>
-      <c r="I122" s="11">
+      <c r="N122" s="11">
         <v>34814</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
+        <v>47414</v>
+      </c>
+      <c r="F123" s="9">
+        <v>60948</v>
+      </c>
+      <c r="G123" s="9">
+        <v>67663</v>
+      </c>
+      <c r="H123" s="9">
+        <v>89338</v>
+      </c>
+      <c r="I123" s="9">
+        <v>98893</v>
+      </c>
+      <c r="J123" s="9">
         <v>113425</v>
       </c>
-      <c r="F123" s="9">
+      <c r="K123" s="9">
         <v>127061</v>
       </c>
-      <c r="G123" s="9">
+      <c r="L123" s="9">
         <v>187053</v>
       </c>
-      <c r="H123" s="9">
+      <c r="M123" s="9">
         <v>142615</v>
       </c>
-      <c r="I123" s="9">
+      <c r="N123" s="9">
         <v>208291</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
+        <v>2072</v>
+      </c>
+      <c r="F124" s="11">
+        <v>3429</v>
+      </c>
+      <c r="G124" s="11">
+        <v>5410</v>
+      </c>
+      <c r="H124" s="11">
+        <v>4636</v>
+      </c>
+      <c r="I124" s="11">
+        <v>4095</v>
+      </c>
+      <c r="J124" s="11">
         <v>6716</v>
       </c>
-      <c r="F124" s="11">
+      <c r="K124" s="11">
         <v>5308</v>
       </c>
-      <c r="G124" s="11">
+      <c r="L124" s="11">
         <v>9257</v>
       </c>
-      <c r="H124" s="11">
+      <c r="M124" s="11">
         <v>6284</v>
       </c>
-      <c r="I124" s="11">
+      <c r="N124" s="11">
         <v>17416</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="F125" s="9">
+        <v>186</v>
+      </c>
+      <c r="G125" s="9">
+        <v>141</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" s="9">
+        <v>296</v>
+      </c>
+      <c r="J125" s="9">
+        <v>0</v>
+      </c>
+      <c r="K125" s="9">
         <v>1</v>
       </c>
-      <c r="G125" s="9">
+      <c r="L125" s="9">
         <v>448</v>
       </c>
-      <c r="H125" s="9">
+      <c r="M125" s="9">
         <v>480</v>
       </c>
-      <c r="I125" s="9">
+      <c r="N125" s="9">
         <v>261</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>8527</v>
+      </c>
+      <c r="F126" s="11">
+        <v>13073</v>
+      </c>
+      <c r="G126" s="11">
+        <v>16556</v>
+      </c>
+      <c r="H126" s="11">
+        <v>17368</v>
+      </c>
+      <c r="I126" s="11">
+        <v>16518</v>
+      </c>
+      <c r="J126" s="11">
         <v>17094</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>11865</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>24365</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>15464</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>22616</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H127" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H127" s="9">
+        <v>0</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
+        <v>82152</v>
+      </c>
+      <c r="F128" s="13">
+        <v>97943</v>
+      </c>
+      <c r="G128" s="13">
+        <v>110026</v>
+      </c>
+      <c r="H128" s="13">
+        <v>132548</v>
+      </c>
+      <c r="I128" s="13">
+        <v>146343</v>
+      </c>
+      <c r="J128" s="13">
         <v>165550</v>
       </c>
-      <c r="F128" s="13">
+      <c r="K128" s="13">
         <v>161359</v>
       </c>
-      <c r="G128" s="13">
+      <c r="L128" s="13">
         <v>251051</v>
       </c>
-      <c r="H128" s="13">
+      <c r="M128" s="13">
         <v>215627</v>
       </c>
-      <c r="I128" s="13">
+      <c r="N128" s="13">
         <v>289210</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3281,8 +4856,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3291,8 +4871,13 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3301,10 +4886,15 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3323,8 +4913,23 @@
       <c r="I132" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3333,246 +4938,401 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D134" s="9"/>
-      <c r="E134" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>26</v>
+      <c r="E134" s="9">
+        <v>0</v>
+      </c>
+      <c r="F134" s="9">
+        <v>0</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" s="11">
+        <v>31</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="11">
+        <v>13011</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L135" s="11">
         <v>32597</v>
       </c>
-      <c r="H135" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I135" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N135" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9">
+        <v>28371</v>
+      </c>
+      <c r="F136" s="9">
+        <v>30969</v>
+      </c>
+      <c r="G136" s="9">
+        <v>34208</v>
+      </c>
+      <c r="H136" s="9">
+        <v>31928</v>
+      </c>
+      <c r="I136" s="9">
+        <v>31208</v>
+      </c>
+      <c r="J136" s="9">
         <v>29627</v>
       </c>
-      <c r="F136" s="9">
+      <c r="K136" s="9">
         <v>34104</v>
       </c>
-      <c r="G136" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H136" s="9">
+      <c r="L136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M136" s="9">
         <v>29781</v>
       </c>
-      <c r="I136" s="9">
+      <c r="N136" s="9">
         <v>23969</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
+        <v>14003</v>
+      </c>
+      <c r="F137" s="11">
+        <v>13634</v>
+      </c>
+      <c r="G137" s="11">
+        <v>39440</v>
+      </c>
+      <c r="H137" s="11">
+        <v>74057</v>
+      </c>
+      <c r="I137" s="11">
+        <v>85211</v>
+      </c>
+      <c r="J137" s="11">
         <v>105863</v>
       </c>
-      <c r="F137" s="11">
+      <c r="K137" s="11">
         <v>137976</v>
       </c>
-      <c r="G137" s="11">
+      <c r="L137" s="11">
         <v>187963</v>
       </c>
-      <c r="H137" s="11">
+      <c r="M137" s="11">
         <v>250235</v>
       </c>
-      <c r="I137" s="11">
+      <c r="N137" s="11">
         <v>270634</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9">
+        <v>14830</v>
+      </c>
+      <c r="F138" s="9">
+        <v>20378</v>
+      </c>
+      <c r="G138" s="9">
+        <v>26561</v>
+      </c>
+      <c r="H138" s="9">
+        <v>36926</v>
+      </c>
+      <c r="I138" s="9">
+        <v>46492</v>
+      </c>
+      <c r="J138" s="9">
         <v>44696</v>
       </c>
-      <c r="F138" s="9">
+      <c r="K138" s="9">
         <v>74606</v>
       </c>
-      <c r="G138" s="9">
+      <c r="L138" s="9">
         <v>73155</v>
       </c>
-      <c r="H138" s="9">
+      <c r="M138" s="9">
         <v>144407</v>
       </c>
-      <c r="I138" s="9">
+      <c r="N138" s="9">
         <v>165733</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
+        <v>18361</v>
+      </c>
+      <c r="F139" s="11">
+        <v>21807</v>
+      </c>
+      <c r="G139" s="11">
+        <v>24011</v>
+      </c>
+      <c r="H139" s="11">
+        <v>28924</v>
+      </c>
+      <c r="I139" s="11">
+        <v>33655</v>
+      </c>
+      <c r="J139" s="11">
         <v>33709</v>
       </c>
-      <c r="F139" s="11">
+      <c r="K139" s="11">
         <v>38345</v>
       </c>
-      <c r="G139" s="11">
+      <c r="L139" s="11">
         <v>47171</v>
       </c>
-      <c r="H139" s="11">
+      <c r="M139" s="11">
         <v>57909</v>
       </c>
-      <c r="I139" s="11">
+      <c r="N139" s="11">
         <v>70715</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9">
+        <v>13612</v>
+      </c>
+      <c r="F140" s="9">
+        <v>13426</v>
+      </c>
+      <c r="G140" s="9">
+        <v>13285</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" s="9">
         <v>12989</v>
       </c>
-      <c r="F140" s="9">
+      <c r="J140" s="9">
+        <v>12989</v>
+      </c>
+      <c r="K140" s="9">
         <v>13762</v>
       </c>
-      <c r="G140" s="9">
+      <c r="L140" s="9">
         <v>13314</v>
       </c>
-      <c r="H140" s="9">
+      <c r="M140" s="9">
         <v>12834</v>
       </c>
-      <c r="I140" s="9">
+      <c r="N140" s="9">
         <v>12573</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11">
+        <v>34109</v>
+      </c>
+      <c r="F141" s="11">
+        <v>46077</v>
+      </c>
+      <c r="G141" s="11">
+        <v>78729</v>
+      </c>
+      <c r="H141" s="11">
+        <v>128230</v>
+      </c>
+      <c r="I141" s="11">
+        <v>184107</v>
+      </c>
+      <c r="J141" s="11">
         <v>237942</v>
       </c>
-      <c r="F141" s="11">
+      <c r="K141" s="11">
         <v>303683</v>
       </c>
-      <c r="G141" s="11">
+      <c r="L141" s="11">
         <v>279318</v>
       </c>
-      <c r="H141" s="11">
+      <c r="M141" s="11">
         <v>263854</v>
       </c>
-      <c r="I141" s="11">
+      <c r="N141" s="11">
         <v>241238</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H142" s="9">
+        <v>0</v>
       </c>
       <c r="I142" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M142" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N142" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13">
+        <v>123286</v>
+      </c>
+      <c r="F143" s="13">
+        <v>146291</v>
+      </c>
+      <c r="G143" s="13">
+        <v>216234</v>
+      </c>
+      <c r="H143" s="13">
+        <v>313076</v>
+      </c>
+      <c r="I143" s="13">
+        <v>393662</v>
+      </c>
+      <c r="J143" s="13">
         <v>464826</v>
       </c>
-      <c r="F143" s="13">
+      <c r="K143" s="13">
         <v>602476</v>
       </c>
-      <c r="G143" s="13">
+      <c r="L143" s="13">
         <v>633518</v>
       </c>
-      <c r="H143" s="13">
+      <c r="M143" s="13">
         <v>759020</v>
       </c>
-      <c r="I143" s="13">
+      <c r="N143" s="13">
         <v>784862</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3581,8 +5341,13 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3591,8 +5356,13 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3601,10 +5371,15 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -3623,8 +5398,23 @@
       <c r="I147" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3633,176 +5423,286 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" s="9">
+        <v>31</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" s="9">
+        <v>310194</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L149" s="9">
         <v>486811</v>
       </c>
-      <c r="H149" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I149" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N149" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
+        <v>242607</v>
+      </c>
+      <c r="F150" s="11">
+        <v>392065</v>
+      </c>
+      <c r="G150" s="11">
+        <v>391482</v>
+      </c>
+      <c r="H150" s="11">
+        <v>402736</v>
+      </c>
+      <c r="I150" s="11">
+        <v>402740</v>
+      </c>
+      <c r="J150" s="11">
         <v>397468</v>
       </c>
-      <c r="F150" s="11">
+      <c r="K150" s="11">
         <v>393929</v>
       </c>
-      <c r="G150" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H150" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I150" s="11">
+      <c r="L150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M150" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" s="11">
         <v>471412</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
+        <v>618105</v>
+      </c>
+      <c r="F151" s="9">
+        <v>495453</v>
+      </c>
+      <c r="G151" s="9">
+        <v>531581</v>
+      </c>
+      <c r="H151" s="9">
+        <v>639005</v>
+      </c>
+      <c r="I151" s="9">
+        <v>790042</v>
+      </c>
+      <c r="J151" s="9">
         <v>845624</v>
       </c>
-      <c r="F151" s="9">
+      <c r="K151" s="9">
         <v>928191</v>
       </c>
-      <c r="G151" s="9">
+      <c r="L151" s="9">
         <v>1037632</v>
       </c>
-      <c r="H151" s="9">
+      <c r="M151" s="9">
         <v>1210353</v>
       </c>
-      <c r="I151" s="9">
+      <c r="N151" s="9">
         <v>1415885</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11">
+        <v>80020</v>
+      </c>
+      <c r="F152" s="11">
+        <v>72681</v>
+      </c>
+      <c r="G152" s="11">
+        <v>79568</v>
+      </c>
+      <c r="H152" s="11">
+        <v>84826</v>
+      </c>
+      <c r="I152" s="11">
+        <v>128478</v>
+      </c>
+      <c r="J152" s="11">
         <v>146071</v>
       </c>
-      <c r="F152" s="11">
+      <c r="K152" s="11">
         <v>159671</v>
       </c>
-      <c r="G152" s="11">
+      <c r="L152" s="11">
         <v>185392</v>
       </c>
-      <c r="H152" s="11">
+      <c r="M152" s="11">
         <v>246632</v>
       </c>
-      <c r="I152" s="11">
+      <c r="N152" s="11">
         <v>305762</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
+        <v>20621</v>
+      </c>
+      <c r="F153" s="9">
+        <v>23078</v>
+      </c>
+      <c r="G153" s="9">
+        <v>27410</v>
+      </c>
+      <c r="H153" s="9">
+        <v>30287</v>
+      </c>
+      <c r="I153" s="9">
+        <v>36612</v>
+      </c>
+      <c r="J153" s="9">
         <v>42624</v>
       </c>
-      <c r="F153" s="9">
+      <c r="K153" s="9">
         <v>45629</v>
       </c>
-      <c r="G153" s="9">
+      <c r="L153" s="9">
         <v>52456</v>
       </c>
-      <c r="H153" s="9">
+      <c r="M153" s="9">
         <v>65521</v>
       </c>
-      <c r="I153" s="9">
+      <c r="N153" s="9">
         <v>80551</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
+        <v>310969</v>
+      </c>
+      <c r="F154" s="11">
+        <v>310968</v>
+      </c>
+      <c r="G154" s="11">
+        <v>310967</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J154" s="11">
         <v>309690</v>
       </c>
-      <c r="F154" s="11">
+      <c r="K154" s="11">
         <v>309690</v>
       </c>
-      <c r="G154" s="11">
+      <c r="L154" s="11">
         <v>328112</v>
       </c>
-      <c r="H154" s="11">
+      <c r="M154" s="11">
         <v>327592</v>
       </c>
-      <c r="I154" s="11">
+      <c r="N154" s="11">
         <v>319890</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
+        <v>481874</v>
+      </c>
+      <c r="F155" s="9">
+        <v>545151</v>
+      </c>
+      <c r="G155" s="9">
+        <v>621973</v>
+      </c>
+      <c r="H155" s="9">
+        <v>766137</v>
+      </c>
+      <c r="I155" s="9">
+        <v>953801</v>
+      </c>
+      <c r="J155" s="9">
         <v>1058439</v>
       </c>
-      <c r="F155" s="9">
+      <c r="K155" s="9">
         <v>1148230</v>
       </c>
-      <c r="G155" s="9">
+      <c r="L155" s="9">
         <v>1235780</v>
       </c>
-      <c r="H155" s="9">
+      <c r="M155" s="9">
         <v>1234402</v>
       </c>
-      <c r="I155" s="9">
+      <c r="N155" s="9">
         <v>1217887</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3811,8 +5711,13 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3821,8 +5726,13 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3831,10 +5741,15 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -3853,8 +5768,23 @@
       <c r="I159" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M159" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N159" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3863,176 +5793,286 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M161" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N161" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D162" s="11"/>
-      <c r="E162" s="11" t="s">
-        <v>26</v>
+      <c r="E162" s="11">
+        <v>438038</v>
       </c>
       <c r="F162" s="11">
+        <v>385580</v>
+      </c>
+      <c r="G162" s="11">
+        <v>449383</v>
+      </c>
+      <c r="H162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K162" s="11">
         <v>7256000000</v>
       </c>
-      <c r="G162" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M162" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N162" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
+        <v>441131</v>
+      </c>
+      <c r="F163" s="9">
+        <v>698804</v>
+      </c>
+      <c r="G163" s="9">
+        <v>910982</v>
+      </c>
+      <c r="H163" s="9">
+        <v>961257</v>
+      </c>
+      <c r="I163" s="9">
+        <v>1117441</v>
+      </c>
+      <c r="J163" s="9">
         <v>1311433</v>
       </c>
-      <c r="F163" s="9">
+      <c r="K163" s="9">
         <v>1632683</v>
       </c>
-      <c r="G163" s="9">
+      <c r="L163" s="9">
         <v>1723322</v>
       </c>
-      <c r="H163" s="9">
+      <c r="M163" s="9">
         <v>2303302</v>
       </c>
-      <c r="I163" s="9">
+      <c r="N163" s="9">
         <v>1943093</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
+        <v>90986</v>
+      </c>
+      <c r="F164" s="11">
+        <v>92297</v>
+      </c>
+      <c r="G164" s="11">
+        <v>122693</v>
+      </c>
+      <c r="H164" s="11">
+        <v>157135</v>
+      </c>
+      <c r="I164" s="11">
+        <v>172318</v>
+      </c>
+      <c r="J164" s="11">
         <v>197137</v>
       </c>
-      <c r="F164" s="11">
+      <c r="K164" s="11">
         <v>327537</v>
       </c>
-      <c r="G164" s="11">
+      <c r="L164" s="11">
         <v>304382</v>
       </c>
-      <c r="H164" s="11">
+      <c r="M164" s="11">
         <v>390672</v>
       </c>
-      <c r="I164" s="11">
+      <c r="N164" s="11">
         <v>364330</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
+        <v>54527</v>
+      </c>
+      <c r="F165" s="9">
+        <v>71897</v>
+      </c>
+      <c r="G165" s="9">
+        <v>70241</v>
+      </c>
+      <c r="H165" s="9">
+        <v>91543</v>
+      </c>
+      <c r="I165" s="9">
+        <v>93176</v>
+      </c>
+      <c r="J165" s="9">
         <v>179025</v>
       </c>
-      <c r="F165" s="9">
+      <c r="K165" s="9">
         <v>214731</v>
       </c>
-      <c r="G165" s="9">
+      <c r="L165" s="9">
         <v>176531</v>
       </c>
-      <c r="H165" s="9">
+      <c r="M165" s="9">
         <v>237379</v>
       </c>
-      <c r="I165" s="9">
+      <c r="N165" s="9">
         <v>222615</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F166" s="11">
+        <v>31</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K166" s="11">
         <v>774000000</v>
       </c>
-      <c r="G166" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H166" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I166" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M166" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N166" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
+        <v>716296</v>
+      </c>
+      <c r="F167" s="9">
+        <v>855664</v>
+      </c>
+      <c r="G167" s="9">
+        <v>1221224</v>
+      </c>
+      <c r="H167" s="9">
+        <v>1343452</v>
+      </c>
+      <c r="I167" s="9">
+        <v>1395405</v>
+      </c>
+      <c r="J167" s="9">
         <v>1570025</v>
       </c>
-      <c r="F167" s="9">
+      <c r="K167" s="9">
         <v>1662190</v>
       </c>
-      <c r="G167" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H167" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I167" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L167" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M167" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N167" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4041,8 +6081,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4051,8 +6096,13 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4061,10 +6111,15 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -4083,8 +6138,23 @@
       <c r="I171" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M171" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N171" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4093,176 +6163,286 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" s="9">
+        <v>31</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H173" s="9">
+        <v>309605</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L173" s="9">
         <v>502834</v>
       </c>
-      <c r="H173" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I173" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M173" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N173" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
+        <v>606032</v>
+      </c>
+      <c r="F174" s="11">
+        <v>387367</v>
+      </c>
+      <c r="G174" s="11">
+        <v>203579</v>
+      </c>
+      <c r="H174" s="11">
+        <v>402685</v>
+      </c>
+      <c r="I174" s="11">
+        <v>946124</v>
+      </c>
+      <c r="J174" s="11">
         <v>477932</v>
       </c>
-      <c r="F174" s="11">
+      <c r="K174" s="11">
         <v>539507</v>
       </c>
-      <c r="G174" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H174" s="11">
+      <c r="L174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M174" s="11">
         <v>628123</v>
       </c>
-      <c r="I174" s="11">
+      <c r="N174" s="11">
         <v>662412</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
+        <v>541023</v>
+      </c>
+      <c r="F175" s="9">
+        <v>633318</v>
+      </c>
+      <c r="G175" s="9">
+        <v>1417576</v>
+      </c>
+      <c r="H175" s="9">
+        <v>797128</v>
+      </c>
+      <c r="I175" s="9">
+        <v>990867</v>
+      </c>
+      <c r="J175" s="9">
         <v>1170132</v>
       </c>
-      <c r="F175" s="9">
+      <c r="K175" s="9">
         <v>1504300</v>
       </c>
-      <c r="G175" s="9">
+      <c r="L175" s="9">
         <v>1226374</v>
       </c>
-      <c r="H175" s="9">
+      <c r="M175" s="9">
         <v>1802942</v>
       </c>
-      <c r="I175" s="9">
+      <c r="N175" s="9">
         <v>1709670</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11">
+        <v>93557</v>
+      </c>
+      <c r="F176" s="11">
+        <v>91187</v>
+      </c>
+      <c r="G176" s="11">
+        <v>124184</v>
+      </c>
+      <c r="H176" s="11">
+        <v>135316</v>
+      </c>
+      <c r="I176" s="11">
+        <v>165223</v>
+      </c>
+      <c r="J176" s="11">
         <v>187601</v>
       </c>
-      <c r="F176" s="11">
+      <c r="K176" s="11">
         <v>356164</v>
       </c>
-      <c r="G176" s="11">
+      <c r="L176" s="11">
         <v>261403</v>
       </c>
-      <c r="H176" s="11">
+      <c r="M176" s="11">
         <v>383617</v>
       </c>
-      <c r="I176" s="11">
+      <c r="N176" s="11">
         <v>345352</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
+        <v>28056</v>
+      </c>
+      <c r="F177" s="9">
+        <v>35860</v>
+      </c>
+      <c r="G177" s="9">
+        <v>48651</v>
+      </c>
+      <c r="H177" s="9">
+        <v>43294</v>
+      </c>
+      <c r="I177" s="9">
+        <v>43032</v>
+      </c>
+      <c r="J177" s="9">
         <v>75770</v>
       </c>
-      <c r="F177" s="9">
+      <c r="K177" s="9">
         <v>98151</v>
       </c>
-      <c r="G177" s="9">
+      <c r="L177" s="9">
         <v>81570</v>
       </c>
-      <c r="H177" s="9">
+      <c r="M177" s="9">
         <v>86389</v>
       </c>
-      <c r="I177" s="9">
+      <c r="N177" s="9">
         <v>124978</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D178" s="11"/>
-      <c r="E178" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>26</v>
+      <c r="E178" s="11">
+        <v>311054</v>
+      </c>
+      <c r="F178" s="11">
+        <v>311037</v>
       </c>
       <c r="G178" s="11">
+        <v>406340</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I178" s="11">
+        <v>334463</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L178" s="11">
         <v>344351</v>
       </c>
-      <c r="H178" s="11">
+      <c r="M178" s="11">
         <v>919540</v>
       </c>
-      <c r="I178" s="11">
+      <c r="N178" s="11">
         <v>509766</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
+        <v>636628</v>
+      </c>
+      <c r="F179" s="9">
+        <v>736466</v>
+      </c>
+      <c r="G179" s="9">
+        <v>1425398</v>
+      </c>
+      <c r="H179" s="9">
+        <v>959876</v>
+      </c>
+      <c r="I179" s="9">
+        <v>1334249</v>
+      </c>
+      <c r="J179" s="9">
         <v>1437195</v>
       </c>
-      <c r="F179" s="9">
+      <c r="K179" s="9">
         <v>1452087</v>
       </c>
-      <c r="G179" s="9">
+      <c r="L179" s="9">
         <v>1251798</v>
       </c>
-      <c r="H179" s="9">
+      <c r="M179" s="9">
         <v>1605982</v>
       </c>
-      <c r="I179" s="9">
+      <c r="N179" s="9">
         <v>1402543</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4271,8 +6451,13 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4281,8 +6466,13 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4291,10 +6481,15 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B183" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -4313,8 +6508,23 @@
       <c r="I183" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K183" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L183" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M183" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N183" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4323,176 +6533,286 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G185" s="9">
+        <v>31</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H185" s="9">
+        <v>310207</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J185" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K185" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L185" s="9">
         <v>486094</v>
       </c>
-      <c r="H185" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I185" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M185" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N185" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D186" s="11"/>
-      <c r="E186" s="11">
+      <c r="E186" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" s="11">
+        <v>402736</v>
+      </c>
+      <c r="H186" s="11">
+        <v>402740</v>
+      </c>
+      <c r="I186" s="11">
+        <v>397468</v>
+      </c>
+      <c r="J186" s="11">
         <v>393929</v>
       </c>
-      <c r="F186" s="11">
+      <c r="K186" s="11">
         <v>486790</v>
       </c>
-      <c r="G186" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H186" s="11">
+      <c r="L186" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M186" s="11">
         <v>471412</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>440607</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D187" s="9"/>
-      <c r="E187" s="9">
+      <c r="E187" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" s="9">
+        <v>639005</v>
+      </c>
+      <c r="H187" s="9">
+        <v>790042</v>
+      </c>
+      <c r="I187" s="9">
+        <v>845624</v>
+      </c>
+      <c r="J187" s="9">
         <v>928191</v>
       </c>
-      <c r="F187" s="9">
+      <c r="K187" s="9">
         <v>1037632</v>
       </c>
-      <c r="G187" s="9">
+      <c r="L187" s="9">
         <v>1210353</v>
       </c>
-      <c r="H187" s="9">
+      <c r="M187" s="9">
         <v>1415885</v>
       </c>
-      <c r="I187" s="9">
+      <c r="N187" s="9">
         <v>1464581</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D188" s="11"/>
-      <c r="E188" s="11">
+      <c r="E188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G188" s="11">
+        <v>84826</v>
+      </c>
+      <c r="H188" s="11">
+        <v>128478</v>
+      </c>
+      <c r="I188" s="11">
+        <v>146071</v>
+      </c>
+      <c r="J188" s="11">
         <v>159671</v>
       </c>
-      <c r="F188" s="11">
+      <c r="K188" s="11">
         <v>185392</v>
       </c>
-      <c r="G188" s="11">
+      <c r="L188" s="11">
         <v>246632</v>
       </c>
-      <c r="H188" s="11">
+      <c r="M188" s="11">
         <v>305762</v>
       </c>
-      <c r="I188" s="11">
+      <c r="N188" s="11">
         <v>331862</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D189" s="9"/>
-      <c r="E189" s="9">
+      <c r="E189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G189" s="9">
+        <v>30287</v>
+      </c>
+      <c r="H189" s="9">
+        <v>36612</v>
+      </c>
+      <c r="I189" s="9">
+        <v>42624</v>
+      </c>
+      <c r="J189" s="9">
         <v>45629</v>
       </c>
-      <c r="F189" s="9">
+      <c r="K189" s="9">
         <v>52456</v>
       </c>
-      <c r="G189" s="9">
+      <c r="L189" s="9">
         <v>65521</v>
       </c>
-      <c r="H189" s="9">
+      <c r="M189" s="9">
         <v>80551</v>
       </c>
-      <c r="I189" s="9">
+      <c r="N189" s="9">
         <v>98858</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C190" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C190" s="11" t="s">
-        <v>28</v>
-      </c>
       <c r="D190" s="11"/>
-      <c r="E190" s="11">
+      <c r="E190" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" s="11">
+        <v>310194</v>
+      </c>
+      <c r="H190" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I190" s="11">
         <v>309690</v>
       </c>
-      <c r="F190" s="11">
+      <c r="J190" s="11">
+        <v>309690</v>
+      </c>
+      <c r="K190" s="11">
         <v>328112</v>
       </c>
-      <c r="G190" s="11">
+      <c r="L190" s="11">
         <v>327592</v>
       </c>
-      <c r="H190" s="11">
+      <c r="M190" s="11">
         <v>319890</v>
       </c>
-      <c r="I190" s="11">
+      <c r="N190" s="11">
         <v>317436</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D191" s="9"/>
-      <c r="E191" s="9">
+      <c r="E191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G191" s="9">
+        <v>766137</v>
+      </c>
+      <c r="H191" s="9">
+        <v>953801</v>
+      </c>
+      <c r="I191" s="9">
+        <v>1058439</v>
+      </c>
+      <c r="J191" s="9">
         <v>1148230</v>
       </c>
-      <c r="F191" s="9">
+      <c r="K191" s="9">
         <v>1235775</v>
       </c>
-      <c r="G191" s="9">
+      <c r="L191" s="9">
         <v>1234402</v>
       </c>
-      <c r="H191" s="9">
+      <c r="M191" s="9">
         <v>1217887</v>
       </c>
-      <c r="I191" s="9">
+      <c r="N191" s="9">
         <v>1203038</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4501,8 +6821,13 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4511,8 +6836,13 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4521,10 +6851,15 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4543,8 +6878,23 @@
       <c r="I195" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L195" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M195" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N195" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4553,10 +6903,15 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
@@ -4575,10 +6930,25 @@
       <c r="I197" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="9">
+        <v>0</v>
+      </c>
+      <c r="K197" s="9">
+        <v>0</v>
+      </c>
+      <c r="L197" s="9">
+        <v>0</v>
+      </c>
+      <c r="M197" s="9">
+        <v>0</v>
+      </c>
+      <c r="N197" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -4597,10 +6967,25 @@
       <c r="I198" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J198" s="11">
+        <v>0</v>
+      </c>
+      <c r="K198" s="11">
+        <v>0</v>
+      </c>
+      <c r="L198" s="11">
+        <v>0</v>
+      </c>
+      <c r="M198" s="11">
+        <v>0</v>
+      </c>
+      <c r="N198" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -4619,10 +7004,25 @@
       <c r="I199" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J199" s="9">
+        <v>0</v>
+      </c>
+      <c r="K199" s="9">
+        <v>0</v>
+      </c>
+      <c r="L199" s="9">
+        <v>0</v>
+      </c>
+      <c r="M199" s="9">
+        <v>0</v>
+      </c>
+      <c r="N199" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -4641,98 +7041,173 @@
       <c r="I200" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="11">
+        <v>0</v>
+      </c>
+      <c r="K200" s="11">
+        <v>0</v>
+      </c>
+      <c r="L200" s="11">
+        <v>0</v>
+      </c>
+      <c r="M200" s="11">
+        <v>0</v>
+      </c>
+      <c r="N200" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9">
+        <v>103349</v>
+      </c>
+      <c r="F201" s="9">
+        <v>123188</v>
+      </c>
+      <c r="G201" s="9">
+        <v>83953</v>
+      </c>
+      <c r="H201" s="9">
+        <v>184048</v>
+      </c>
+      <c r="I201" s="9">
+        <v>202677</v>
+      </c>
+      <c r="J201" s="9">
         <v>176881</v>
       </c>
-      <c r="F201" s="9">
+      <c r="K201" s="9">
         <v>80511</v>
       </c>
-      <c r="G201" s="9">
+      <c r="L201" s="9">
         <v>231714</v>
       </c>
-      <c r="H201" s="9">
+      <c r="M201" s="9">
         <v>147814</v>
       </c>
-      <c r="I201" s="9">
+      <c r="N201" s="9">
         <v>131425</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11">
+        <v>89536</v>
+      </c>
+      <c r="F202" s="11">
+        <v>139723</v>
+      </c>
+      <c r="G202" s="11">
+        <v>67686</v>
+      </c>
+      <c r="H202" s="11">
+        <v>149401</v>
+      </c>
+      <c r="I202" s="11">
+        <v>254182</v>
+      </c>
+      <c r="J202" s="11">
         <v>330722</v>
       </c>
-      <c r="F202" s="11">
+      <c r="K202" s="11">
         <v>291051</v>
       </c>
-      <c r="G202" s="11">
+      <c r="L202" s="11">
         <v>393137</v>
       </c>
-      <c r="H202" s="11">
+      <c r="M202" s="11">
         <v>216294</v>
       </c>
-      <c r="I202" s="11">
+      <c r="N202" s="11">
         <v>474147</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9">
+        <v>42407</v>
+      </c>
+      <c r="F203" s="9">
+        <v>41844</v>
+      </c>
+      <c r="G203" s="9">
+        <v>43325</v>
+      </c>
+      <c r="H203" s="9">
+        <v>46252</v>
+      </c>
+      <c r="I203" s="9">
+        <v>46139</v>
+      </c>
+      <c r="J203" s="9">
         <v>45959</v>
       </c>
-      <c r="F203" s="9">
+      <c r="K203" s="9">
         <v>35048</v>
       </c>
-      <c r="G203" s="9">
+      <c r="L203" s="9">
         <v>23599</v>
       </c>
-      <c r="H203" s="9">
+      <c r="M203" s="9">
         <v>22501</v>
       </c>
-      <c r="I203" s="9">
+      <c r="N203" s="9">
         <v>21384</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11">
+        <v>114465</v>
+      </c>
+      <c r="F204" s="11">
+        <v>150515</v>
+      </c>
+      <c r="G204" s="11">
+        <v>91667</v>
+      </c>
+      <c r="H204" s="11">
+        <v>184205</v>
+      </c>
+      <c r="I204" s="11">
+        <v>142564</v>
+      </c>
+      <c r="J204" s="11">
         <v>176294</v>
       </c>
-      <c r="F204" s="11">
+      <c r="K204" s="11">
         <v>175824</v>
       </c>
-      <c r="G204" s="11">
+      <c r="L204" s="11">
         <v>280197</v>
       </c>
-      <c r="H204" s="11">
+      <c r="M204" s="11">
         <v>225615</v>
       </c>
-      <c r="I204" s="11">
+      <c r="N204" s="11">
         <v>285331</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
@@ -4751,52 +7226,97 @@
       <c r="I205" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J205" s="9">
+        <v>0</v>
+      </c>
+      <c r="K205" s="9">
+        <v>0</v>
+      </c>
+      <c r="L205" s="9">
+        <v>0</v>
+      </c>
+      <c r="M205" s="9">
+        <v>0</v>
+      </c>
+      <c r="N205" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11">
+        <v>69310</v>
+      </c>
+      <c r="F206" s="11">
+        <v>15744</v>
+      </c>
+      <c r="G206" s="11">
+        <v>141257</v>
+      </c>
+      <c r="H206" s="11">
+        <v>110862</v>
+      </c>
+      <c r="I206" s="11">
+        <v>124948</v>
+      </c>
+      <c r="J206" s="11">
         <v>100964</v>
       </c>
-      <c r="F206" s="11">
+      <c r="K206" s="11">
         <v>114475</v>
       </c>
-      <c r="G206" s="11">
+      <c r="L206" s="11">
         <v>109718</v>
       </c>
-      <c r="H206" s="11">
+      <c r="M206" s="11">
         <v>123595</v>
       </c>
-      <c r="I206" s="11">
+      <c r="N206" s="11">
         <v>81877</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C207" s="15"/>
       <c r="D207" s="15"/>
       <c r="E207" s="15">
+        <v>419067</v>
+      </c>
+      <c r="F207" s="15">
+        <v>471014</v>
+      </c>
+      <c r="G207" s="15">
+        <v>427888</v>
+      </c>
+      <c r="H207" s="15">
+        <v>674768</v>
+      </c>
+      <c r="I207" s="15">
+        <v>770510</v>
+      </c>
+      <c r="J207" s="15">
         <v>830820</v>
       </c>
-      <c r="F207" s="15">
+      <c r="K207" s="15">
         <v>696909</v>
       </c>
-      <c r="G207" s="15">
+      <c r="L207" s="15">
         <v>1038365</v>
       </c>
-      <c r="H207" s="15">
+      <c r="M207" s="15">
         <v>735819</v>
       </c>
-      <c r="I207" s="15">
+      <c r="N207" s="15">
         <v>994164</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -4805,8 +7325,13 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -4815,8 +7340,13 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -4825,10 +7355,15 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+    </row>
+    <row r="211" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -4837,8 +7372,13 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4847,13 +7387,18 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -4861,13 +7406,18 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
@@ -4875,13 +7425,18 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -4889,13 +7444,18 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
@@ -4903,123 +7463,128 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
       <c r="F217" s="9"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
